--- a/publipostage/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
+++ b/publipostage/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT01078129</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Efficacy of Hierarchized Computer-assisted Cognitive Remediation Therapy in Schizophrenia</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT01288183</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Behavioral Impact of Prefrontal Anodal Transcranial Direct Current Stimulation on Smokers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -554,28 +569,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT02110771</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Efficacy Study of GAÏA Program Cognitive Remediation of Facial Affects Processing in Schizophrenia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -587,28 +607,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT00875498</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Intermittent Theta Burst Stimulation (iTBS) for the Treatment of Negative Symptoms in Schizophrenia</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -620,32 +645,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT02402101</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Effect of the Transcranial Direct Current Stimulation on the Dopaminergic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>DOPA-STIM</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -657,33 +687,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT02717260</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT00870909</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Inhibition Control Modulation by Transcranial Random Noise Stimulation (tRNS ) on the Prefrontal Cortex Measured by Change in Go no Test</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>inhibistim</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
+          <t>Anodal &amp; Cathodal tDCS for Treatment of Resistant Auditory Hallucinations in Schizophrenia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,99 +725,122 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT00870909</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT02717260</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Anodal &amp; Cathodal tDCS for Treatment of Resistant Auditory Hallucinations in Schizophrenia</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="b">
-        <v>0</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Inhibition Control Modulation by Transcranial Random Noise Stimulation (tRNS ) on the Prefrontal Cortex Measured by Change in Go no Test</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>inhibistim</t>
+        </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT02734927</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT02438163</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Motivation and Executive Control in Schizophrenia</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Study of Neuroplasticity on Depressed Patients Versus Healthy Subjects : Modulation of the MEP Size Induced by Theta Burst Stimulation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>DEPLAS</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT02438163</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT01891929</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Study of Neuroplasticity on Depressed Patients Versus Healthy Subjects : Modulation of the MEP Size Induced by Theta Burst Stimulation</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DEPLAS</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
+          <t>Specific Cognitive Remediation for Schizophrenia (RECOS) and Sheltered Employment: a Multicentre Controlled Randomized Trial.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>RemedRehab</t>
+        </is>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -797,32 +851,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT01891929</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT02734927</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Specific Cognitive Remediation for Schizophrenia (RECOS) and Sheltered Employment: a Multicentre Controlled Randomized Trial.</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>RemedRehab</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
+          <t>Motivation and Executive Control in Schizophrenia</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -834,32 +889,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT03492970</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT02667834</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Characterization of Behavioral Disorders and 24 H-melatonin Level in Adults With Smith Magenis Syndrome</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SMS-adults</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>Efficiency of the French Translation Program:Social Cognition and Interactive Training (SCIT) of Negative Symptoms in Schizophrenia</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>SCIT-VF</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -871,32 +931,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT02667834</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT02949453</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Efficiency of the French Translation Program:Social Cognition and Interactive Training (SCIT) of Negative Symptoms in Schizophrenia</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SCIT-VF</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+          <t>ACCeptation and Qualitative Evaluation of Phone-delivered Intervention To Prevent Suicide Reattempt</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ACCEPT-S</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -908,32 +973,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT02949453</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT03492970</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ACCeptation and Qualitative Evaluation of Phone-delivered Intervention To Prevent Suicide Reattempt</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ACCEPT-S</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Characterization of Behavioral Disorders and 24 H-melatonin Level in Adults With Smith Magenis Syndrome</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>SMS-adults</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -945,32 +1015,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT03688516</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT03028545</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Effects of Emotion on Episodic Memory in Typically Developing Children and Children With Williams-Beuren Syndrome</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EEM-TAdev</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Representations, Strategies and Identity Redefinition in the Recovery Process: Exploratory Study</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>EPR</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -982,32 +1057,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT04141540</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT03688516</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Translational 22q11.2:"Molecular Variants Associated With Schizophrenia: Differential Analysis of Monozygotic Twins With Variable Phenotypic 22q11.2 Microdeletional Syndrom"</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CSRK05</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>Effects of Emotion on Episodic Memory in Typically Developing Children and Children With Williams-Beuren Syndrome</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>EEM-TAdev</t>
+        </is>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1019,32 +1099,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT03028545</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT04141540</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Representations, Strategies and Identity Redefinition in the Recovery Process: Exploratory Study</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EPR</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Translational 22q11.2:"Molecular Variants Associated With Schizophrenia: Differential Analysis of Monozygotic Twins With Variable Phenotypic 22q11.2 Microdeletional Syndrom"</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>CSRK05</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1056,32 +1141,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>NCT02793258</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Impact of Transcranial Direct Current Stimulation on Emotional Processing in Major Depression</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>EmoStim</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1093,107 +1183,122 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>NCT02887794</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Basic Auditory Processing and Acoustico-verbal Hallucinations: a Pathophysiological Study</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>AUDISCHIZ</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT02608333</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT04147988</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Impact of Early Intervention on the Global Development of Children With Autism Spectrum Disorder in a European French-speaking Population Dr Marie-Maude GEOFFRAY Le Vinatier Hospital</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>IDEA</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
+          <t>Describing, Detecting and Orienting Adults Without Intellectual Disability Asking for an Autism Spectrum Disorder Diagnosis</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ASSORT</t>
+        </is>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT04147988</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT02608333</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Describing, Detecting and Orienting Adults Without Intellectual Disability Asking for an Autism Spectrum Disorder Diagnosis</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ASSORT</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Impact of Early Intervention on the Global Development of Children With Autism Spectrum Disorder in a European French-speaking Population Dr Marie-Maude GEOFFRAY Le Vinatier Hospital</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>IDEA</t>
+        </is>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1204,32 +1309,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>NCT02976077</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Preliminary Validation of the RC2S+ Therapy in Schizophrenia</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>RC2S+</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1241,32 +1351,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>NCT02660775</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Social Cognitive Assessment in Psychiatry - Validation of a New Battery: ClaCoS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>(ClaCoS)</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1278,27 +1393,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>NCT03538197</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>SURAYA : Suicide Re Attempts in Young Adults After First Suicide Attempt : Socio-demographic, Clinical and Biological Correlates</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>SURAYA</t>
         </is>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1306,6 +1423,9 @@
       <c r="I24" t="b">
         <v>1</v>
       </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1315,32 +1435,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT04245306</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT05213442</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Pilot Evaluation of a New Computerized Test for Pragmatic Inferences in Children with Autism Spectrum Disorder Aged 8-12 Years Old</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TIPI</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>Liver Status in Psychiatric Inpatients</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>LIVERSPIN</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1352,32 +1477,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT05213442</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT04245306</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Liver Status in Psychiatric Inpatients</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>LIVERSPIN</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Pilot Evaluation of a New Computerized Test for Pragmatic Inferences in Children with Autism Spectrum Disorder Aged 8-12 Years Old</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>TIPI</t>
+        </is>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1389,32 +1519,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>NCT03217357</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Effects of Transcranial Direct Current Stimulation on Stress Reactivity and Decision Making in Unaffected Siblings of Patients With Schizophrenia</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>3S</t>
         </is>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
+++ b/publipostage/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +656,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -716,6 +746,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -758,6 +793,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -800,6 +840,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -842,6 +887,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -880,6 +930,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -922,6 +977,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -964,6 +1024,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1006,6 +1071,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1048,6 +1118,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1090,6 +1165,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1132,6 +1212,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1174,6 +1259,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1216,6 +1306,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1258,6 +1353,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1300,6 +1400,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1342,6 +1447,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1384,6 +1494,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1426,6 +1541,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1468,6 +1588,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1510,6 +1635,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1551,6 +1681,11 @@
       </c>
       <c r="J27" t="b">
         <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
   </sheetData>
